--- a/src/main/resources/excel/score_import.xlsx
+++ b/src/main/resources/excel/score_import.xlsx
@@ -11,13 +11,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="5">
-  <si>
-    <t>年级</t>
-  </si>
-  <si>
-    <t>班级</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="3">
   <si>
     <t>学号</t>
   </si>
@@ -35,7 +29,7 @@
   <numFmts count="1">
     <numFmt numFmtId="0" formatCode="General"/>
   </numFmts>
-  <fonts count="5">
+  <fonts count="4">
     <font>
       <sz val="12"/>
       <color indexed="8"/>
@@ -56,11 +50,6 @@
       <color indexed="8"/>
       <name val="宋体"/>
     </font>
-    <font>
-      <sz val="12"/>
-      <color indexed="8"/>
-      <name val="宋体"/>
-    </font>
   </fonts>
   <fills count="3">
     <fill>
@@ -76,7 +65,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="5">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -99,50 +88,13 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin">
-        <color indexed="10"/>
-      </left>
-      <right style="thin">
-        <color indexed="10"/>
-      </right>
-      <top style="thin">
-        <color indexed="10"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="10"/>
-      </left>
-      <right style="thin">
-        <color indexed="10"/>
-      </right>
-      <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="10"/>
-      </left>
-      <right style="thin">
-        <color indexed="10"/>
-      </right>
-      <top/>
-      <bottom style="thin">
-        <color indexed="10"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="0" applyAlignment="1" applyProtection="0">
       <alignment vertical="top" wrapText="1"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="0" applyAlignment="1" applyProtection="0">
       <alignment vertical="top" wrapText="1"/>
     </xf>
@@ -151,15 +103,6 @@
     </xf>
     <xf numFmtId="49" fontId="3" fillId="2" borderId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="1" fontId="4" fillId="2" borderId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf numFmtId="1" fontId="4" fillId="2" borderId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf numFmtId="1" fontId="4" fillId="2" borderId="4" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="bottom"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1271,7 +1214,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:E9"/>
+  <dimension ref="A1:C1"/>
   <sheetViews>
     <sheetView workbookViewId="0" showGridLines="0" defaultGridColor="1"/>
   </sheetViews>
@@ -1279,10 +1222,8 @@
   <cols>
     <col min="1" max="1" width="8.75" style="1" customWidth="1"/>
     <col min="2" max="2" width="8.75" style="1" customWidth="1"/>
-    <col min="3" max="3" width="8.75" style="1" customWidth="1"/>
-    <col min="4" max="4" width="8.75" style="1" customWidth="1"/>
-    <col min="5" max="5" width="8.75" style="1" customWidth="1"/>
-    <col min="6" max="256" width="9.375" style="1" customWidth="1"/>
+    <col min="3" max="3" width="8.28906" style="1" customWidth="1"/>
+    <col min="4" max="256" width="9.375" style="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" ht="20" customHeight="1">
@@ -1295,68 +1236,6 @@
       <c r="C1" t="s" s="2">
         <v>2</v>
       </c>
-      <c r="D1" t="s" s="2">
-        <v>3</v>
-      </c>
-      <c r="E1" t="s" s="2">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="2" ht="17" customHeight="1">
-      <c r="A2" s="3"/>
-      <c r="B2" s="3"/>
-      <c r="C2" s="3"/>
-      <c r="D2" s="3"/>
-      <c r="E2" s="3"/>
-    </row>
-    <row r="3" ht="17" customHeight="1">
-      <c r="A3" s="4"/>
-      <c r="B3" s="4"/>
-      <c r="C3" s="4"/>
-      <c r="D3" s="4"/>
-      <c r="E3" s="4"/>
-    </row>
-    <row r="4" ht="17" customHeight="1">
-      <c r="A4" s="4"/>
-      <c r="B4" s="4"/>
-      <c r="C4" s="4"/>
-      <c r="D4" s="4"/>
-      <c r="E4" s="4"/>
-    </row>
-    <row r="5" ht="17" customHeight="1">
-      <c r="A5" s="4"/>
-      <c r="B5" s="4"/>
-      <c r="C5" s="4"/>
-      <c r="D5" s="4"/>
-      <c r="E5" s="4"/>
-    </row>
-    <row r="6" ht="17" customHeight="1">
-      <c r="A6" s="4"/>
-      <c r="B6" s="4"/>
-      <c r="C6" s="4"/>
-      <c r="D6" s="4"/>
-      <c r="E6" s="4"/>
-    </row>
-    <row r="7" ht="17" customHeight="1">
-      <c r="A7" s="4"/>
-      <c r="B7" s="4"/>
-      <c r="C7" s="4"/>
-      <c r="D7" s="4"/>
-      <c r="E7" s="4"/>
-    </row>
-    <row r="8" ht="17" customHeight="1">
-      <c r="A8" s="4"/>
-      <c r="B8" s="4"/>
-      <c r="C8" s="4"/>
-      <c r="D8" s="4"/>
-      <c r="E8" s="4"/>
-    </row>
-    <row r="9" ht="17" customHeight="1">
-      <c r="A9" s="5"/>
-      <c r="B9" s="5"/>
-      <c r="C9" s="5"/>
-      <c r="D9" s="5"/>
-      <c r="E9" s="5"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/src/main/resources/excel/score_import.xlsx
+++ b/src/main/resources/excel/score_import.xlsx
@@ -1,17 +1,25 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="23206"/>
+  <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="40" windowWidth="15960" windowHeight="18080"/>
+    <workbookView xWindow="240" yWindow="240" windowWidth="25360" windowHeight="14260"/>
   </bookViews>
   <sheets>
-    <sheet name="工作表1" sheetId="1" r:id="rId4"/>
+    <sheet name="工作表1" sheetId="1" r:id="rId1"/>
   </sheets>
+  <calcPr calcId="0" concurrentCalc="0"/>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
+      <mx:ArchID Flags="2"/>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="3">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9" uniqueCount="9">
   <si>
     <t>学号</t>
   </si>
@@ -20,28 +28,40 @@
   </si>
   <si>
     <t xml:space="preserve">&lt;jt:forEach items="${columns}" var="item" copyRight="true"&gt;${item}&lt;/jt:forEach&gt;	</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>年级</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>班级</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>&lt;jt:forEach items="${dataList}" var="item"&gt;${item.sid}</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>${item.gradeName}</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>${item.className}</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>${item.name}&lt;/jt:forEach&gt;</t>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="1">
-    <numFmt numFmtId="0" formatCode="General"/>
-  </numFmts>
-  <fonts count="4">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
-      <color indexed="8"/>
-      <name val="Verdana"/>
-    </font>
-    <font>
-      <sz val="12"/>
-      <color indexed="8"/>
-      <name val="Helvetica"/>
-    </font>
-    <font>
-      <sz val="15"/>
       <color indexed="8"/>
       <name val="Verdana"/>
     </font>
@@ -49,6 +69,10 @@
       <sz val="9"/>
       <color indexed="8"/>
       <name val="宋体"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <name val="Verdana"/>
     </font>
   </fonts>
   <fills count="3">
@@ -90,46 +114,99 @@
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf numFmtId="0" fontId="0" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="0" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyProtection="0">
       <alignment vertical="top" wrapText="1"/>
     </xf>
   </cellStyleXfs>
   <cellXfs count="3">
-    <xf numFmtId="0" fontId="0" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="0" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="0" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="3" fillId="2" borderId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="49" fontId="1" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="普通" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
-  <tableStyles count="0"/>
+  <tableStyles count="0" defaultPivotStyle="PivotStyleMedium4"/>
   <colors>
     <indexedColors>
-      <rgbColor rgb="ff000000"/>
-      <rgbColor rgb="ffffffff"/>
-      <rgbColor rgb="ffff0000"/>
-      <rgbColor rgb="ff00ff00"/>
-      <rgbColor rgb="ff0000ff"/>
-      <rgbColor rgb="ffffff00"/>
-      <rgbColor rgb="ffff00ff"/>
-      <rgbColor rgb="ff00ffff"/>
-      <rgbColor rgb="ff000000"/>
-      <rgbColor rgb="ffffffff"/>
-      <rgbColor rgb="ffaaaaaa"/>
+      <rgbColor rgb="FF000000"/>
+      <rgbColor rgb="FFFFFFFF"/>
+      <rgbColor rgb="FFFF0000"/>
+      <rgbColor rgb="FF00FF00"/>
+      <rgbColor rgb="FF0000FF"/>
+      <rgbColor rgb="FFFFFF00"/>
+      <rgbColor rgb="FFFF00FF"/>
+      <rgbColor rgb="FF00FFFF"/>
+      <rgbColor rgb="FF000000"/>
+      <rgbColor rgb="FFFFFFFF"/>
+      <rgbColor rgb="FFAAAAAA"/>
+      <rgbColor rgb="001FB714"/>
+      <rgbColor rgb="000000D4"/>
+      <rgbColor rgb="00FCF305"/>
+      <rgbColor rgb="00F20884"/>
+      <rgbColor rgb="0000ABEA"/>
+      <rgbColor rgb="00900000"/>
+      <rgbColor rgb="00006411"/>
+      <rgbColor rgb="00000090"/>
+      <rgbColor rgb="0090713A"/>
+      <rgbColor rgb="004600A5"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="00C0C0C0"/>
+      <rgbColor rgb="00808080"/>
+      <rgbColor rgb="0063AAFE"/>
+      <rgbColor rgb="00DD2D32"/>
+      <rgbColor rgb="00FFF58C"/>
+      <rgbColor rgb="004EE257"/>
+      <rgbColor rgb="006711FF"/>
+      <rgbColor rgb="00FEA746"/>
+      <rgbColor rgb="00865357"/>
+      <rgbColor rgb="00A2BD90"/>
+      <rgbColor rgb="0063AAFE"/>
+      <rgbColor rgb="00DD2D32"/>
+      <rgbColor rgb="00FFF58C"/>
+      <rgbColor rgb="004EE257"/>
+      <rgbColor rgb="006711FF"/>
+      <rgbColor rgb="00FEA746"/>
+      <rgbColor rgb="00865357"/>
+      <rgbColor rgb="00A2BD90"/>
+      <rgbColor rgb="0000CCFF"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00CCFFCC"/>
+      <rgbColor rgb="00FFFF99"/>
+      <rgbColor rgb="0099CCFF"/>
+      <rgbColor rgb="00FF99CC"/>
+      <rgbColor rgb="00CC99FF"/>
+      <rgbColor rgb="00FFCC99"/>
+      <rgbColor rgb="003366FF"/>
+      <rgbColor rgb="0033CCCC"/>
+      <rgbColor rgb="0099CC00"/>
+      <rgbColor rgb="00FFCC00"/>
+      <rgbColor rgb="00FF9900"/>
+      <rgbColor rgb="00FF6600"/>
+      <rgbColor rgb="00666699"/>
+      <rgbColor rgb="00969696"/>
+      <rgbColor rgb="00003366"/>
+      <rgbColor rgb="00339966"/>
+      <rgbColor rgb="00003300"/>
+      <rgbColor rgb="00333300"/>
+      <rgbColor rgb="00993300"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00333399"/>
+      <rgbColor rgb="00333333"/>
     </indexedColors>
   </colors>
 </styleSheet>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Blank">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Blank">
   <a:themeElements>
     <a:clrScheme name="Blank">
       <a:dk1>
@@ -255,7 +332,7 @@
       <a:effectStyleLst>
         <a:effectStyle>
           <a:effectLst>
-            <a:outerShdw sx="100000" sy="100000" kx="0" ky="0" algn="b" rotWithShape="0" blurRad="38100" dist="25400" dir="5400000">
+            <a:outerShdw blurRad="38100" dist="25400" dir="5400000" rotWithShape="0">
               <a:srgbClr val="000000">
                 <a:alpha val="50000"/>
               </a:srgbClr>
@@ -264,7 +341,7 @@
         </a:effectStyle>
         <a:effectStyle>
           <a:effectLst>
-            <a:outerShdw sx="100000" sy="100000" kx="0" ky="0" algn="b" rotWithShape="0" blurRad="38100" dist="25400" dir="5400000">
+            <a:outerShdw blurRad="38100" dist="25400" dir="5400000" rotWithShape="0">
               <a:srgbClr val="000000">
                 <a:alpha val="50000"/>
               </a:srgbClr>
@@ -273,7 +350,7 @@
         </a:effectStyle>
         <a:effectStyle>
           <a:effectLst>
-            <a:outerShdw sx="100000" sy="100000" kx="0" ky="0" algn="b" rotWithShape="0" blurRad="38100" dist="25400" dir="5400000">
+            <a:outerShdw blurRad="38100" dist="25400" dir="5400000" rotWithShape="0">
               <a:srgbClr val="000000">
                 <a:alpha val="50000"/>
               </a:srgbClr>
@@ -347,7 +424,7 @@
           <a:round/>
         </a:ln>
         <a:effectLst>
-          <a:outerShdw sx="100000" sy="100000" kx="0" ky="0" algn="b" rotWithShape="0" blurRad="38100" dist="25400" dir="5400000">
+          <a:outerShdw blurRad="38100" dist="25400" dir="5400000" rotWithShape="0">
             <a:srgbClr val="000000">
               <a:alpha val="50000"/>
             </a:srgbClr>
@@ -355,7 +432,7 @@
         </a:effectLst>
         <a:sp3d/>
       </a:spPr>
-      <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="overflow" horzOverflow="overflow" vert="horz" wrap="square" lIns="50800" tIns="50800" rIns="50800" bIns="50800" numCol="1" spcCol="38100" rtlCol="0" anchor="ctr" upright="0">
+      <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="overflow" horzOverflow="overflow" vert="horz" wrap="square" lIns="50800" tIns="50800" rIns="50800" bIns="50800" numCol="1" spcCol="38100" rtlCol="0" anchor="ctr">
         <a:spAutoFit/>
       </a:bodyPr>
       <a:lstStyle>
@@ -374,7 +451,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1100" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1100" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -404,7 +481,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -430,7 +507,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -456,7 +533,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -482,7 +559,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -508,7 +585,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -534,7 +611,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -560,7 +637,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -586,7 +663,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -612,7 +689,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -625,9 +702,15 @@
         </a:lvl9pPr>
       </a:lstStyle>
       <a:style>
-        <a:lnRef idx="0"/>
-        <a:fillRef idx="0"/>
-        <a:effectRef idx="0"/>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
         <a:fontRef idx="none"/>
       </a:style>
     </a:spDef>
@@ -642,7 +725,7 @@
           <a:round/>
         </a:ln>
         <a:effectLst>
-          <a:outerShdw sx="100000" sy="100000" kx="0" ky="0" algn="b" rotWithShape="0" blurRad="38100" dist="25400" dir="5400000">
+          <a:outerShdw blurRad="38100" dist="25400" dir="5400000" rotWithShape="0">
             <a:srgbClr val="000000">
               <a:alpha val="50000"/>
             </a:srgbClr>
@@ -650,7 +733,7 @@
         </a:effectLst>
         <a:sp3d/>
       </a:spPr>
-      <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="overflow" horzOverflow="overflow" vert="horz" wrap="square" lIns="91439" tIns="45719" rIns="91439" bIns="45719" numCol="1" spcCol="38100" rtlCol="0" anchor="t" upright="0">
+      <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="overflow" horzOverflow="overflow" vert="horz" wrap="square" lIns="91439" tIns="45719" rIns="91439" bIns="45719" numCol="1" spcCol="38100" rtlCol="0" anchor="t">
         <a:noAutofit/>
       </a:bodyPr>
       <a:lstStyle>
@@ -669,7 +752,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -695,7 +778,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -721,7 +804,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -747,7 +830,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -773,7 +856,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -799,7 +882,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -825,7 +908,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -851,7 +934,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -877,7 +960,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -903,7 +986,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -916,9 +999,15 @@
         </a:lvl9pPr>
       </a:lstStyle>
       <a:style>
-        <a:lnRef idx="0"/>
-        <a:fillRef idx="0"/>
-        <a:effectRef idx="0"/>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
         <a:fontRef idx="none"/>
       </a:style>
     </a:lnDef>
@@ -932,7 +1021,7 @@
         <a:effectLst/>
         <a:sp3d/>
       </a:spPr>
-      <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="overflow" horzOverflow="overflow" vert="horz" wrap="square" lIns="50800" tIns="50800" rIns="50800" bIns="50800" numCol="1" spcCol="38100" rtlCol="0" anchor="t" upright="0">
+      <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="overflow" horzOverflow="overflow" vert="horz" wrap="square" lIns="50800" tIns="50800" rIns="50800" bIns="50800" numCol="1" spcCol="38100" rtlCol="0" anchor="t">
         <a:spAutoFit/>
       </a:bodyPr>
       <a:lstStyle>
@@ -951,7 +1040,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1100" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1100" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -981,7 +1070,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1007,7 +1096,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1033,7 +1122,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1059,7 +1148,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1085,7 +1174,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1111,7 +1200,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1137,7 +1226,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1163,7 +1252,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1189,7 +1278,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1202,46 +1291,80 @@
         </a:lvl9pPr>
       </a:lstStyle>
       <a:style>
-        <a:lnRef idx="0"/>
-        <a:fillRef idx="0"/>
-        <a:effectRef idx="0"/>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
         <a:fontRef idx="none"/>
       </a:style>
     </a:txDef>
   </a:objectDefaults>
+  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:C1"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:IX2"/>
   <sheetViews>
-    <sheetView workbookViewId="0" showGridLines="0" defaultGridColor="1"/>
+    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
+      <selection activeCell="F6" sqref="F6"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.375" defaultRowHeight="15" customHeight="1" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.375" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0"/>
   <cols>
-    <col min="1" max="1" width="8.75" style="1" customWidth="1"/>
-    <col min="2" max="2" width="8.75" style="1" customWidth="1"/>
-    <col min="3" max="3" width="8.28906" style="1" customWidth="1"/>
-    <col min="4" max="256" width="9.375" style="1" customWidth="1"/>
+    <col min="1" max="4" width="8.75" style="1" customWidth="1"/>
+    <col min="5" max="5" width="8.25" style="1" customWidth="1"/>
+    <col min="6" max="258" width="9.375" style="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" ht="20" customHeight="1">
-      <c r="A1" t="s" s="2">
+    <row r="1" spans="1:5" ht="20" customHeight="1">
+      <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B1" t="s" s="2">
+      <c r="B1" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="D1" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="C1" t="s" s="2">
+      <c r="E1" s="2" t="s">
         <v>2</v>
       </c>
     </row>
+    <row r="2" spans="1:5" ht="15" customHeight="1">
+      <c r="A2" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>8</v>
+      </c>
+    </row>
   </sheetData>
+  <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-  <pageSetup firstPageNumber="1" fitToHeight="1" fitToWidth="1" scale="100" useFirstPageNumber="0" orientation="portrait" pageOrder="downThenOver"/>
+  <pageSetup orientation="portrait"/>
   <headerFooter>
     <oddFooter>&amp;L&amp;"Helvetica,Regular"&amp;12&amp;K000000&amp;P</oddFooter>
   </headerFooter>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
+      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
+    </ext>
+  </extLst>
 </worksheet>
 </file>